--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijksbaron\Desktop\AML_G11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC91AA-1238-4723-9DA9-940FE3C85A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0103C1-5C40-4950-9FC1-CE9197DB3C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{61AFDF5D-6140-4D6C-9D49-F0DB4B5811B9}"/>
+    <workbookView xWindow="11910" yWindow="4395" windowWidth="14400" windowHeight="8595" xr2:uid="{61AFDF5D-6140-4D6C-9D49-F0DB4B5811B9}"/>
   </bookViews>
   <sheets>
     <sheet name="MobileNetV2" sheetId="1" r:id="rId1"/>
@@ -435,6 +435,81 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1791,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A2F06E-1C22-4A7D-BE04-B08BDBA6FECE}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1945,9 @@
       <c r="C5" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0.187</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1880,7 +1957,9 @@
       <c r="C6" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0.33700000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1890,7 +1969,9 @@
       <c r="C7" s="1">
         <v>0.104</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0.39500000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1900,7 +1981,9 @@
       <c r="C8" s="1">
         <v>0.11</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0.42599999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1910,7 +1993,9 @@
       <c r="C9" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0.47599999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1920,7 +2005,9 @@
       <c r="C10" s="1">
         <v>0.128</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.47199999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1930,7 +2017,9 @@
       <c r="C11" s="1">
         <v>0.152</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0.48799999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1940,7 +2029,9 @@
       <c r="C12" s="1">
         <v>0.187</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.497</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1950,7 +2041,9 @@
       <c r="C13" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0.50600000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1960,7 +2053,9 @@
       <c r="C14" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0.55200000000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1970,7 +2065,9 @@
       <c r="C15" s="1">
         <v>0.192</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0.56499999999999995</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1980,7 +2077,9 @@
       <c r="C16" s="1">
         <v>0.217</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0.58099999999999996</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1990,7 +2089,9 @@
       <c r="C17" s="1">
         <v>0.188</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0.55100000000000005</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2000,7 +2101,9 @@
       <c r="C18" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>0.58599999999999997</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2010,7 +2113,9 @@
       <c r="C19" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>0.58699999999999997</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2020,7 +2125,9 @@
       <c r="C20" s="1">
         <v>0.23699999999999999</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>0.59899999999999998</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2030,7 +2137,9 @@
       <c r="C21" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0.59599999999999997</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2040,7 +2149,9 @@
       <c r="C22" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>0.60099999999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2050,7 +2161,9 @@
       <c r="C23" s="1">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0.61099999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2060,7 +2173,9 @@
       <c r="C24" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>0.63800000000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2070,7 +2185,9 @@
       <c r="C25" s="1">
         <v>0.22</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>0.63900000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2080,7 +2197,9 @@
       <c r="C26" s="1">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2090,7 +2209,9 @@
       <c r="C27" s="1">
         <v>0.24</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>0.66200000000000003</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2100,7 +2221,9 @@
       <c r="C28" s="1">
         <v>0.22900000000000001</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>0.66800000000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2110,7 +2233,14 @@
       <c r="C29" s="1">
         <v>0.254</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>0.83499999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A509FC-51FC-4353-8ABA-A1DC9B8F1186}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijksbaron\Desktop\AML_G11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0103C1-5C40-4950-9FC1-CE9197DB3C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5885C7-F8CA-4FA0-A2EB-1DE0C44A0E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="4395" windowWidth="14400" windowHeight="8595" xr2:uid="{61AFDF5D-6140-4D6C-9D49-F0DB4B5811B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61AFDF5D-6140-4D6C-9D49-F0DB4B5811B9}"/>
   </bookViews>
   <sheets>
     <sheet name="MobileNetV2" sheetId="1" r:id="rId1"/>
@@ -113,8 +113,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -252,10 +253,16 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MobileNetV2!$B$5:$B$29</c:f>
+              <c:f>MobileNetV2!$B$5:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
+                <c:pt idx="7">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1868,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A2F06E-1C22-4A7D-BE04-B08BDBA6FECE}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,11 +1948,11 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.187</v>
       </c>
     </row>
@@ -1953,11 +1960,11 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.33700000000000002</v>
       </c>
     </row>
@@ -1965,11 +1972,11 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
         <v>0.104</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.39500000000000002</v>
       </c>
     </row>
@@ -1977,11 +1984,11 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
         <v>0.11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.42599999999999999</v>
       </c>
     </row>
@@ -1989,11 +1996,11 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>0.47599999999999998</v>
       </c>
     </row>
@@ -2001,11 +2008,11 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
         <v>0.128</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>0.47199999999999998</v>
       </c>
     </row>
@@ -2013,11 +2020,11 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
         <v>0.152</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.48799999999999999</v>
       </c>
     </row>
@@ -2025,11 +2032,13 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1">
+      <c r="B12" s="3">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.187</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>0.497</v>
       </c>
     </row>
@@ -2037,11 +2046,11 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
         <v>0.18099999999999999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>0.50600000000000001</v>
       </c>
     </row>
@@ -2049,11 +2058,11 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.55200000000000005</v>
       </c>
     </row>
@@ -2061,11 +2070,11 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
         <v>0.192</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>0.56499999999999995</v>
       </c>
     </row>
@@ -2073,11 +2082,13 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1">
+      <c r="B16" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.217</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>0.58099999999999996</v>
       </c>
     </row>
@@ -2085,11 +2096,11 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
         <v>0.188</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -2097,11 +2108,11 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0.58599999999999997</v>
       </c>
     </row>
@@ -2109,11 +2120,11 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>0.58699999999999997</v>
       </c>
     </row>
@@ -2121,11 +2132,11 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2">
         <v>0.23699999999999999</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0.59899999999999998</v>
       </c>
     </row>
@@ -2133,11 +2144,11 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>0.59599999999999997</v>
       </c>
     </row>
@@ -2145,11 +2156,11 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>0.60099999999999998</v>
       </c>
     </row>
@@ -2157,11 +2168,11 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>0.61099999999999999</v>
       </c>
     </row>
@@ -2169,11 +2180,11 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>0.63800000000000001</v>
       </c>
     </row>
@@ -2181,11 +2192,11 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2">
         <v>0.22</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>0.63900000000000001</v>
       </c>
     </row>
@@ -2193,11 +2204,11 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -2205,11 +2216,11 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2">
         <v>0.24</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>0.66200000000000003</v>
       </c>
     </row>
@@ -2217,11 +2228,11 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2">
         <v>0.22900000000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>0.66800000000000004</v>
       </c>
     </row>
@@ -2229,16 +2240,18 @@
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1">
+      <c r="B29" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="C29" s="2">
         <v>0.254</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>0.83499999999999996</v>
       </c>
     </row>
@@ -2252,7 +2265,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
